--- a/biology/Botanique/Angraecum_egertonii/Angraecum_egertonii.xlsx
+++ b/biology/Botanique/Angraecum_egertonii/Angraecum_egertonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angraecum egertonii est une espèce de plantes herbacées épiphytes de la famille des Orchidaceae et du genre Angraecum, endémique des terres africaines bordant le Golfe de Guinée. Elle a été découverte et décrite par Rendle en 1913.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte, pendante ; la tige mesure jusqu'à 40 cm de long, plus ou moins deux bords, avec de nombreuses racines fines parmi les feuilles ; il y a de nombreuses feuilles, en deux rangées, largement elliptiques-ovées, de 1,5-4,5x0,7-2 cm, avec l'apex émoussé à deux lobes ; les inflorescences sont laches, dressées, de 3 cm de long, 1(-3)-fleuries, portées le long de la tige à l'opposé d'une feuille ; les fleurs verdâtres à blanches ; les tépales sont largement lancéolés-elliptiques, de 6-11x1,5 mm ; la lèvre ovoïde-elliptique, est aiguë, de 4-7,5 x 3,2 mm ; l'éperon fait 7 mm de long, le sac plus ou moins globulaire, l'apex gonflé[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte, pendante ; la tige mesure jusqu'à 40 cm de long, plus ou moins deux bords, avec de nombreuses racines fines parmi les feuilles ; il y a de nombreuses feuilles, en deux rangées, largement elliptiques-ovées, de 1,5-4,5x0,7-2 cm, avec l'apex émoussé à deux lobes ; les inflorescences sont laches, dressées, de 3 cm de long, 1(-3)-fleuries, portées le long de la tige à l'opposé d'une feuille ; les fleurs verdâtres à blanches ; les tépales sont largement lancéolés-elliptiques, de 6-11x1,5 mm ; la lèvre ovoïde-elliptique, est aiguë, de 4-7,5 x 3,2 mm ; l'éperon fait 7 mm de long, le sac plus ou moins globulaire, l'apex gonflé. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve au Cameroun, au Nigeria, au Gabon[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve au Cameroun, au Nigeria, au Gabon.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle pousse en forêt humide et près des chutes d'eau, de 200 à 700 m d'altitude[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle pousse en forêt humide et près des chutes d'eau, de 200 à 700 m d'altitude.
 </t>
         </is>
       </c>
